--- a/Lab Project/Example Order.xlsx
+++ b/Lab Project/Example Order.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramos\Downloads\Syracuse forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0F49A4F-2092-41C7-A4EF-A48C3511DE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064E8CB6-358D-45EA-AD6E-D446E972EA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{31F11288-AEC7-44E8-A198-168431DFF821}"/>
   </bookViews>
@@ -297,12 +297,6 @@
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,9 +313,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,12 +324,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -355,15 +340,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -377,9 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -388,6 +361,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -726,7 +726,7 @@
   <dimension ref="A2:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -739,190 +739,190 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="20.149999999999999" x14ac:dyDescent="0.5">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20.149999999999999" x14ac:dyDescent="0.5">
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="20.149999999999999" x14ac:dyDescent="0.5">
       <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="22.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="9" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>10</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="28">
         <v>3367</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="13">
         <v>5.95</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="14">
         <f>J8*C8</f>
         <v>59.5</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>10</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="28">
         <v>3369</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17" t="s">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="13">
         <v>12.5</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="14">
         <f>J9*C9</f>
         <v>125</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20.149999999999999" x14ac:dyDescent="0.5">
-      <c r="A10" s="34"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" x14ac:dyDescent="0.5">
-      <c r="A11" s="34"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="26" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="20">
         <f>SUM(K8:K9)</f>
         <v>184.5</v>
       </c>
-      <c r="L11" s="32"/>
+      <c r="L11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" xr:uid="{959FA1DB-A119-4B02-B401-B12B005C16AC}"/>
